--- a/Ước lượng chi phí.xlsx
+++ b/Ước lượng chi phí.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\PTTKHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136D8F8-0237-49E8-8234-966A6F8C475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF99D61-ADD4-4F07-BC60-611F58E633AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79FC914F-95DB-4CC6-B7D9-B87ECDFE2306}"/>
   </bookViews>
@@ -390,6 +390,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -410,21 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD45F30-1146-46D3-B2F8-3E2D0C4C4335}">
   <dimension ref="A2:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -756,13 +756,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -836,25 +836,25 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="3">
         <f>SUM(E4,E5,E6)</f>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -920,23 +920,23 @@
         <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="3">
         <f>SUM(E12,E13,E14)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,18 +948,18 @@
       <c r="D17" s="6"/>
       <c r="E17" s="5">
         <f>SUM(E7,E15)</f>
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1229,12 +1229,12 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3">
         <f>SUM(E22:E34)</f>
         <v>45</v>
@@ -1255,14 +1255,14 @@
       <c r="F37" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1437,12 +1437,12 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="3">
         <f>SUM(E42:E49)</f>
         <v>12</v>
@@ -1465,12 +1465,12 @@
       <c r="A54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="2">
         <f>E17*E37*E52</f>
-        <v>67.704000000000008</v>
+        <v>100.46400000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,22 +1488,16 @@
       <c r="A56" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="2">
         <f>E55*E54</f>
-        <v>1354.0800000000002</v>
+        <v>2009.2800000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A55:D55"/>
@@ -1512,6 +1506,12 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
